--- a/covasim_webapp/tmp_excels/Population_Nsk.xlsx
+++ b/covasim_webapp/tmp_excels/Population_Nsk.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kozlov_ie\PycharmProjects\mini_exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0769787-CC96-4906-AFA3-68ED60C5D42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDA55EF-34EC-426A-99E7-2608B8A246FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="7" r:id="rId1"/>
     <sheet name="Households" sheetId="1" r:id="rId2"/>
-    <sheet name="Kindergarten" sheetId="4" r:id="rId3"/>
-    <sheet name="School" sheetId="2" r:id="rId4"/>
+    <sheet name="School" sheetId="2" r:id="rId3"/>
+    <sheet name="Kindergarten" sheetId="4" r:id="rId4"/>
     <sheet name="University" sheetId="5" r:id="rId5"/>
     <sheet name="Education_Common" sheetId="6" r:id="rId6"/>
     <sheet name="Work" sheetId="3" r:id="rId7"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="108">
   <si>
     <t>Households</t>
   </si>
@@ -215,15 +215,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>0.529</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t xml:space="preserve">School contact matrix </t>
   </si>
   <si>
@@ -234,12 +225,6 @@
   </si>
   <si>
     <t>Percent</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>0.838</t>
   </si>
   <si>
     <t>Workplace size distribution</t>
@@ -784,15 +769,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>100000</v>
@@ -810,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:Q57"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1154,41 +1139,41 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="12.75">
-      <c r="A23" s="10">
-        <v>2</v>
-      </c>
-      <c r="B23" s="10">
-        <v>163</v>
-      </c>
-      <c r="C23" s="10">
-        <v>999</v>
-      </c>
-      <c r="D23" s="10">
-        <v>2316</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2230</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1880</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1856</v>
-      </c>
-      <c r="H23" s="10">
-        <v>2390</v>
-      </c>
-      <c r="I23" s="10">
-        <v>3118</v>
-      </c>
-      <c r="J23" s="10">
-        <v>9528</v>
-      </c>
-      <c r="K23" s="10">
-        <v>9345</v>
-      </c>
-      <c r="L23" s="10">
-        <v>5584</v>
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="5"/>
@@ -1206,41 +1191,41 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="12.75">
-      <c r="A24" s="10">
-        <v>3</v>
-      </c>
-      <c r="B24" s="10">
-        <v>115</v>
-      </c>
-      <c r="C24" s="10">
-        <v>757</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1545</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1907</v>
-      </c>
-      <c r="F24" s="10">
-        <v>2066</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1811</v>
-      </c>
-      <c r="H24" s="10">
-        <v>2028</v>
-      </c>
-      <c r="I24" s="10">
-        <v>2175</v>
-      </c>
-      <c r="J24" s="10">
-        <v>3311</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1587</v>
-      </c>
-      <c r="L24" s="10">
-        <v>588</v>
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>163</v>
+      </c>
+      <c r="C24">
+        <v>999</v>
+      </c>
+      <c r="D24">
+        <v>2316</v>
+      </c>
+      <c r="E24">
+        <v>2230</v>
+      </c>
+      <c r="F24">
+        <v>1880</v>
+      </c>
+      <c r="G24">
+        <v>1856</v>
+      </c>
+      <c r="H24">
+        <v>2390</v>
+      </c>
+      <c r="I24">
+        <v>3118</v>
+      </c>
+      <c r="J24">
+        <v>9528</v>
+      </c>
+      <c r="K24">
+        <v>9345</v>
+      </c>
+      <c r="L24">
+        <v>5584</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -1258,41 +1243,41 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="12.75">
-      <c r="A25" s="10">
-        <v>4</v>
-      </c>
-      <c r="B25" s="10">
-        <v>135</v>
-      </c>
-      <c r="C25" s="10">
-        <v>442</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1029</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1951</v>
-      </c>
-      <c r="F25" s="10">
-        <v>2670</v>
-      </c>
-      <c r="G25" s="10">
-        <v>2547</v>
-      </c>
-      <c r="H25" s="10">
-        <v>2368</v>
-      </c>
-      <c r="I25" s="10">
-        <v>1695</v>
-      </c>
-      <c r="J25" s="10">
-        <v>1763</v>
-      </c>
-      <c r="K25" s="10">
-        <v>520</v>
-      </c>
-      <c r="L25" s="10">
-        <v>221</v>
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>757</v>
+      </c>
+      <c r="D25">
+        <v>1545</v>
+      </c>
+      <c r="E25">
+        <v>1907</v>
+      </c>
+      <c r="F25">
+        <v>2066</v>
+      </c>
+      <c r="G25">
+        <v>1811</v>
+      </c>
+      <c r="H25">
+        <v>2028</v>
+      </c>
+      <c r="I25">
+        <v>2175</v>
+      </c>
+      <c r="J25">
+        <v>3311</v>
+      </c>
+      <c r="K25">
+        <v>1587</v>
+      </c>
+      <c r="L25">
+        <v>588</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -1310,41 +1295,41 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26" ht="12.75">
-      <c r="A26" s="10">
-        <v>5</v>
-      </c>
-      <c r="B26" s="10">
-        <v>61</v>
-      </c>
-      <c r="C26" s="10">
-        <v>172</v>
-      </c>
-      <c r="D26" s="10">
-        <v>394</v>
-      </c>
-      <c r="E26" s="10">
-        <v>905</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1429</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1232</v>
-      </c>
-      <c r="H26" s="10">
-        <v>969</v>
-      </c>
-      <c r="I26" s="10">
-        <v>683</v>
-      </c>
-      <c r="J26" s="10">
-        <v>623</v>
-      </c>
-      <c r="K26" s="10">
-        <v>235</v>
-      </c>
-      <c r="L26" s="10">
-        <v>94</v>
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>135</v>
+      </c>
+      <c r="C26">
+        <v>442</v>
+      </c>
+      <c r="D26">
+        <v>1029</v>
+      </c>
+      <c r="E26">
+        <v>1951</v>
+      </c>
+      <c r="F26">
+        <v>2670</v>
+      </c>
+      <c r="G26">
+        <v>2547</v>
+      </c>
+      <c r="H26">
+        <v>2368</v>
+      </c>
+      <c r="I26">
+        <v>1695</v>
+      </c>
+      <c r="J26">
+        <v>1763</v>
+      </c>
+      <c r="K26">
+        <v>520</v>
+      </c>
+      <c r="L26">
+        <v>221</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
@@ -1362,41 +1347,41 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" spans="1:26" ht="12.75">
-      <c r="A27" s="10">
-        <v>6</v>
-      </c>
-      <c r="B27" s="10">
-        <v>25</v>
-      </c>
-      <c r="C27" s="10">
-        <v>81</v>
-      </c>
-      <c r="D27" s="10">
-        <v>153</v>
-      </c>
-      <c r="E27" s="10">
-        <v>352</v>
-      </c>
-      <c r="F27" s="10">
-        <v>511</v>
-      </c>
-      <c r="G27" s="10">
-        <v>459</v>
-      </c>
-      <c r="H27" s="10">
-        <v>372</v>
-      </c>
-      <c r="I27" s="10">
-        <v>280</v>
-      </c>
-      <c r="J27" s="10">
-        <v>280</v>
-      </c>
-      <c r="K27" s="10">
-        <v>113</v>
-      </c>
-      <c r="L27" s="10">
-        <v>49</v>
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>172</v>
+      </c>
+      <c r="D27">
+        <v>394</v>
+      </c>
+      <c r="E27">
+        <v>905</v>
+      </c>
+      <c r="F27">
+        <v>1429</v>
+      </c>
+      <c r="G27">
+        <v>1232</v>
+      </c>
+      <c r="H27">
+        <v>969</v>
+      </c>
+      <c r="I27">
+        <v>683</v>
+      </c>
+      <c r="J27">
+        <v>623</v>
+      </c>
+      <c r="K27">
+        <v>235</v>
+      </c>
+      <c r="L27">
+        <v>94</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -1414,41 +1399,41 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="1:26" ht="12.75">
-      <c r="A28" s="10">
-        <v>7</v>
-      </c>
-      <c r="B28" s="10">
-        <v>24</v>
-      </c>
-      <c r="C28" s="10">
-        <v>33</v>
-      </c>
-      <c r="D28" s="10">
-        <v>63</v>
-      </c>
-      <c r="E28" s="10">
-        <v>144</v>
-      </c>
-      <c r="F28" s="10">
-        <v>279</v>
-      </c>
-      <c r="G28" s="10">
-        <v>242</v>
-      </c>
-      <c r="H28" s="10">
-        <v>219</v>
-      </c>
-      <c r="I28" s="10">
-        <v>115</v>
-      </c>
-      <c r="J28" s="10">
-        <v>157</v>
-      </c>
-      <c r="K28" s="10">
-        <v>80</v>
-      </c>
-      <c r="L28" s="10">
-        <v>16</v>
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <v>153</v>
+      </c>
+      <c r="E28">
+        <v>352</v>
+      </c>
+      <c r="F28">
+        <v>511</v>
+      </c>
+      <c r="G28">
+        <v>459</v>
+      </c>
+      <c r="H28">
+        <v>372</v>
+      </c>
+      <c r="I28">
+        <v>280</v>
+      </c>
+      <c r="J28">
+        <v>280</v>
+      </c>
+      <c r="K28">
+        <v>113</v>
+      </c>
+      <c r="L28">
+        <v>49</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
@@ -1466,18 +1451,42 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" ht="12.75">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>63</v>
+      </c>
+      <c r="E29">
+        <v>144</v>
+      </c>
+      <c r="F29">
+        <v>279</v>
+      </c>
+      <c r="G29">
+        <v>242</v>
+      </c>
+      <c r="H29">
+        <v>219</v>
+      </c>
+      <c r="I29">
+        <v>115</v>
+      </c>
+      <c r="J29">
+        <v>157</v>
+      </c>
+      <c r="K29">
+        <v>80</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -1494,32 +1503,44 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="1:26" ht="12.75">
-      <c r="A30" s="16" t="s">
-        <v>49</v>
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="12.75">
-      <c r="A31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
@@ -1531,27 +1552,9 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" ht="12.75">
-      <c r="A32" s="10">
-        <v>1</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="A32" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
@@ -1563,11 +1566,11 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" ht="12.75">
-      <c r="A33" s="10">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>52</v>
+      <c r="A33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1596,10 +1599,10 @@
     </row>
     <row r="34" spans="1:26" ht="12.75">
       <c r="A34" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1628,10 +1631,10 @@
     </row>
     <row r="35" spans="1:26" ht="12.75">
       <c r="A35" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1660,10 +1663,10 @@
     </row>
     <row r="36" spans="1:26" ht="12.75">
       <c r="A36" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1692,10 +1695,10 @@
     </row>
     <row r="37" spans="1:26" ht="12.75">
       <c r="A37" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1724,10 +1727,10 @@
     </row>
     <row r="38" spans="1:26" ht="12.75">
       <c r="A38" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1754,216 +1757,157 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="40" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A40" s="16" t="s">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="10">
+        <v>6</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+    </row>
+    <row r="40" spans="1:26" ht="12.75">
+      <c r="A40" s="10">
+        <v>7</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+    </row>
+    <row r="41" spans="1:26" ht="12.75"/>
+    <row r="42" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A42" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
+    <row r="43" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K43" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L43" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="11" t="s">
+      <c r="N43" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O41" s="11" t="s">
+      <c r="O43" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="P43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="Q43" s="11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="12">
-        <v>0.62</v>
-      </c>
-      <c r="C42" s="12">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E42" s="12">
-        <v>0.122</v>
-      </c>
-      <c r="F42" s="12">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0.317</v>
-      </c>
-      <c r="H42" s="12">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="J42" s="12">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="K42" s="12">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="L42" s="12">
-        <v>6.2E-2</v>
-      </c>
-      <c r="M42" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="N42" s="12">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="O42" s="12">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="P42" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q42" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="12">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="C43" s="12">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D43" s="12">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="E43" s="12">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="F43" s="12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="H43" s="12">
-        <v>0.51</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="J43" s="12">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="K43" s="12">
-        <v>0.128</v>
-      </c>
-      <c r="L43" s="12">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="M43" s="12">
-        <v>2.7E-2</v>
-      </c>
-      <c r="N43" s="12">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="O43" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="P43" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q43" s="12">
-        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="13.5" thickBot="1">
       <c r="A44" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" s="12">
-        <v>0.17699999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="C44" s="12">
-        <v>0.52</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="D44" s="12">
-        <v>1.524</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E44" s="12">
-        <v>0.40200000000000002</v>
+        <v>0.122</v>
       </c>
       <c r="F44" s="12">
-        <v>5.8999999999999997E-2</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="G44" s="12">
-        <v>3.9E-2</v>
+        <v>0.317</v>
       </c>
       <c r="H44" s="12">
-        <v>0.19800000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="I44" s="12">
-        <v>0.48199999999999998</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="J44" s="12">
-        <v>0.55500000000000005</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="K44" s="12">
-        <v>0.21299999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="L44" s="12">
-        <v>7.9000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="M44" s="12">
-        <v>2.4E-2</v>
+        <v>0.03</v>
       </c>
       <c r="N44" s="12">
-        <v>1.2999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="O44" s="12">
-        <v>1.2E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P44" s="12">
-        <v>8.0000000000000002E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q44" s="12">
         <v>4.0000000000000001E-3</v>
@@ -1971,52 +1915,52 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B45" s="12">
-        <v>8.5000000000000006E-2</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="C45" s="12">
-        <v>0.16300000000000001</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="D45" s="12">
-        <v>0.45800000000000002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="E45" s="12">
-        <v>1.29</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="F45" s="12">
-        <v>0.19600000000000001</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G45" s="12">
-        <v>4.8000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="H45" s="12">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="I45" s="12">
-        <v>0.245</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="J45" s="12">
-        <v>0.439</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="K45" s="12">
-        <v>0.37</v>
+        <v>0.128</v>
       </c>
       <c r="L45" s="12">
-        <v>0.187</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="M45" s="12">
-        <v>5.8000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N45" s="12">
-        <v>1.6E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="O45" s="12">
-        <v>1.6E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P45" s="12">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q45" s="12">
         <v>3.0000000000000001E-3</v>
@@ -2024,155 +1968,155 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B46" s="12">
-        <v>0.14799999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="C46" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.52</v>
       </c>
       <c r="D46" s="12">
-        <v>8.5000000000000006E-2</v>
+        <v>1.524</v>
       </c>
       <c r="E46" s="12">
-        <v>0.35799999999999998</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="F46" s="12">
-        <v>1.2090000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G46" s="12">
-        <v>0.20899999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H46" s="12">
-        <v>5.7000000000000002E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="I46" s="12">
-        <v>2.7E-2</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="J46" s="12">
-        <v>0.13700000000000001</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="K46" s="12">
-        <v>0.31900000000000001</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="L46" s="12">
-        <v>0.191</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="M46" s="12">
-        <v>0.108</v>
+        <v>2.4E-2</v>
       </c>
       <c r="N46" s="12">
-        <v>1.9E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="O46" s="12">
-        <v>6.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="P46" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q46" s="12">
         <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q46" s="12">
-        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B47" s="12">
-        <v>0.39800000000000002</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C47" s="12">
-        <v>0.17799999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D47" s="12">
-        <v>4.3999999999999997E-2</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="E47" s="12">
-        <v>8.3000000000000004E-2</v>
+        <v>1.29</v>
       </c>
       <c r="F47" s="12">
-        <v>0.23200000000000001</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="G47" s="12">
-        <v>0.99299999999999999</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H47" s="12">
-        <v>0.222</v>
+        <v>0.05</v>
       </c>
       <c r="I47" s="12">
-        <v>3.1E-2</v>
+        <v>0.245</v>
       </c>
       <c r="J47" s="12">
-        <v>1.4E-2</v>
+        <v>0.439</v>
       </c>
       <c r="K47" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.37</v>
       </c>
       <c r="L47" s="12">
-        <v>0.16</v>
+        <v>0.187</v>
       </c>
       <c r="M47" s="12">
-        <v>0.11600000000000001</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="N47" s="12">
-        <v>4.2999999999999997E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="O47" s="12">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="P47" s="12">
-        <v>1E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q47" s="12">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A48" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B48" s="12">
-        <v>0.48299999999999998</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="C48" s="12">
-        <v>0.54700000000000004</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D48" s="12">
-        <v>0.27</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E48" s="12">
-        <v>5.2999999999999999E-2</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="F48" s="12">
-        <v>6.3E-2</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="G48" s="12">
-        <v>0.19800000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="H48" s="12">
-        <v>0.88100000000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="I48" s="12">
-        <v>0.192</v>
+        <v>2.7E-2</v>
       </c>
       <c r="J48" s="12">
-        <v>8.3000000000000004E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="K48" s="12">
-        <v>1.7000000000000001E-2</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="L48" s="12">
-        <v>3.2000000000000001E-2</v>
+        <v>0.191</v>
       </c>
       <c r="M48" s="12">
-        <v>5.0999999999999997E-2</v>
+        <v>0.108</v>
       </c>
       <c r="N48" s="12">
-        <v>4.7E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O48" s="12">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P48" s="12">
         <v>4.0000000000000001E-3</v>
@@ -2183,478 +2127,584 @@
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A49" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B49" s="12">
-        <v>0.45300000000000001</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="C49" s="12">
-        <v>0.74299999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D49" s="12">
-        <v>0.60199999999999998</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E49" s="12">
-        <v>0.23300000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F49" s="12">
-        <v>0.03</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="G49" s="12">
-        <v>3.2000000000000001E-2</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="H49" s="12">
-        <v>0.14599999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="I49" s="12">
-        <v>0.91700000000000004</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J49" s="12">
-        <v>0.17699999999999999</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K49" s="12">
-        <v>3.6999999999999998E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L49" s="12">
-        <v>2.3E-2</v>
+        <v>0.16</v>
       </c>
       <c r="M49" s="12">
-        <v>1.6E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="N49" s="12">
-        <v>2.9000000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="O49" s="12">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P49" s="12">
-        <v>6.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="Q49" s="12">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B50" s="12">
-        <v>0.21199999999999999</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="C50" s="12">
-        <v>0.501</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D50" s="12">
-        <v>0.65200000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="E50" s="12">
-        <v>0.44900000000000001</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F50" s="12">
-        <v>0.10299999999999999</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G50" s="12">
-        <v>2.5999999999999999E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="H50" s="12">
-        <v>8.8999999999999996E-2</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="I50" s="12">
-        <v>0.187</v>
+        <v>0.192</v>
       </c>
       <c r="J50" s="12">
-        <v>0.73199999999999998</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="K50" s="12">
-        <v>0.12</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="L50" s="12">
-        <v>3.5999999999999997E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="M50" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N50" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O50" s="12">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N50" s="12">
-        <v>2.4E-2</v>
-      </c>
-      <c r="O50" s="12">
-        <v>2.5000000000000001E-2</v>
-      </c>
       <c r="P50" s="12">
-        <v>1.0999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q50" s="12">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A51" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B51" s="12">
-        <v>0.13600000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="C51" s="12">
-        <v>0.27900000000000003</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="D51" s="12">
-        <v>0.45400000000000001</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E51" s="12">
-        <v>0.61799999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="F51" s="12">
-        <v>0.33800000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="G51" s="12">
-        <v>8.5000000000000006E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H51" s="12">
-        <v>3.1E-2</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="I51" s="12">
-        <v>9.4E-2</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="J51" s="12">
-        <v>0.16500000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="K51" s="12">
-        <v>0.75800000000000001</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="L51" s="12">
-        <v>0.14299999999999999</v>
+        <v>2.3E-2</v>
       </c>
       <c r="M51" s="12">
-        <v>3.4000000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="N51" s="12">
-        <v>1.4E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="O51" s="12">
-        <v>0.01</v>
+        <v>1.6E-2</v>
       </c>
       <c r="P51" s="12">
-        <v>8.9999999999999993E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q51" s="12">
-        <v>1.4999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B52" s="12">
-        <v>0.19500000000000001</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C52" s="12">
-        <v>0.17799999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="D52" s="12">
-        <v>0.33300000000000002</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="E52" s="12">
-        <v>0.41299999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="F52" s="12">
-        <v>0.35599999999999998</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="G52" s="12">
-        <v>0.223</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H52" s="12">
-        <v>8.7999999999999995E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="I52" s="12">
-        <v>5.3999999999999999E-2</v>
+        <v>0.187</v>
       </c>
       <c r="J52" s="12">
-        <v>9.7000000000000003E-2</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="K52" s="12">
-        <v>0.17799999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="L52" s="12">
-        <v>0.73199999999999998</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="M52" s="12">
-        <v>0.16200000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="N52" s="12">
-        <v>3.3000000000000002E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="O52" s="12">
-        <v>8.0000000000000002E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P52" s="12">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="Q52" s="12">
-        <v>1.7999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B53" s="12">
-        <v>0.29199999999999998</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="C53" s="12">
-        <v>0.29599999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="D53" s="12">
-        <v>0.223</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="E53" s="12">
-        <v>0.33200000000000002</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="F53" s="12">
-        <v>0.308</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="G53" s="12">
-        <v>0.36699999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H53" s="12">
-        <v>0.25</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I53" s="12">
-        <v>8.1000000000000003E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J53" s="12">
-        <v>4.2000000000000003E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K53" s="12">
-        <v>0.13200000000000001</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="L53" s="12">
-        <v>0.24</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="M53" s="12">
-        <v>0.79800000000000004</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="N53" s="12">
-        <v>0.16600000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O53" s="12">
-        <v>3.9E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P53" s="12">
-        <v>6.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="Q53" s="12">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A54" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B54" s="12">
-        <v>0.311</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="C54" s="12">
-        <v>0.28799999999999998</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D54" s="12">
-        <v>0.20599999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E54" s="12">
-        <v>0.185</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="F54" s="12">
-        <v>0.13800000000000001</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="G54" s="12">
-        <v>0.19400000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="H54" s="12">
-        <v>0.25</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="I54" s="12">
-        <v>0.18</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J54" s="12">
-        <v>0.10199999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="K54" s="12">
-        <v>4.8000000000000001E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="L54" s="12">
-        <v>9.9000000000000005E-2</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="M54" s="12">
-        <v>0.20699999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="N54" s="12">
-        <v>0.66400000000000003</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O54" s="12">
-        <v>0.104</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P54" s="12">
-        <v>2.1999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="Q54" s="12">
-        <v>4.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A55" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B55" s="12">
-        <v>0.214</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="C55" s="12">
-        <v>0.32200000000000001</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D55" s="12">
-        <v>0.29699999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="E55" s="12">
-        <v>0.18099999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F55" s="12">
-        <v>0.11799999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="G55" s="12">
-        <v>0.111</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="H55" s="12">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I55" s="12">
-        <v>0.24099999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="J55" s="12">
-        <v>0.25600000000000001</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K55" s="12">
-        <v>6.8000000000000005E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="L55" s="12">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="M55" s="12">
-        <v>0.09</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="N55" s="12">
-        <v>0.14499999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="O55" s="12">
-        <v>0.60099999999999998</v>
+        <v>3.9E-2</v>
       </c>
       <c r="P55" s="12">
-        <v>8.5999999999999993E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q55" s="12">
-        <v>8.9999999999999993E-3</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A56" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B56" s="12">
-        <v>8.7999999999999995E-2</v>
+        <v>0.311</v>
       </c>
       <c r="C56" s="12">
-        <v>0.28000000000000003</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D56" s="12">
-        <v>0.25600000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E56" s="12">
-        <v>0.21299999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="F56" s="12">
-        <v>4.2000000000000003E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="G56" s="12">
-        <v>7.8E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="H56" s="12">
-        <v>6.9000000000000006E-2</v>
+        <v>0.25</v>
       </c>
       <c r="I56" s="12">
-        <v>0.157</v>
+        <v>0.18</v>
       </c>
       <c r="J56" s="12">
-        <v>0.25900000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="K56" s="12">
-        <v>0.15</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="L56" s="12">
-        <v>8.4000000000000005E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="M56" s="12">
-        <v>3.6999999999999998E-2</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="N56" s="12">
-        <v>0.10100000000000001</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="O56" s="12">
-        <v>0.13400000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="P56" s="12">
-        <v>0.40200000000000002</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Q56" s="12">
-        <v>9.1999999999999998E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="12">
+        <v>0.214</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F57" s="12">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0.111</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="K57" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="M57" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="N57" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O57" s="12">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="P57" s="12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F58" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G58" s="12">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H58" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0.157</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K58" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="L58" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M58" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N58" s="12">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="O58" s="12">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="P58" s="12">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A59" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B59" s="12">
         <v>0.17899999999999999</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C59" s="12">
         <v>0.22700000000000001</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D59" s="12">
         <v>0.37</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E59" s="12">
         <v>0.28599999999999998</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F59" s="12">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G59" s="12">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H59" s="12">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I59" s="12">
         <v>0.17299999999999999</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J59" s="12">
         <v>0.223</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K59" s="12">
         <v>0.26300000000000001</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L59" s="12">
         <v>0.253</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M59" s="12">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N59" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O59" s="12">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P59" s="12">
         <v>0.115</v>
       </c>
-      <c r="Q57" s="12">
+      <c r="Q59" s="12">
         <v>0.30199999999999999</v>
       </c>
     </row>
@@ -2668,146 +2718,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2202B34E-A3F8-4254-903B-720D9E1A5438}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6">
-        <v>0.57142857142857095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7">
-        <v>0.42857142857142799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2815,19 +2725,19 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F1" sqref="F1:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -2835,7 +2745,7 @@
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -2843,87 +2753,87 @@
     </row>
     <row r="4" spans="1:2" ht="12.75">
       <c r="A4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75">
       <c r="A5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B6">
-        <v>0.57142857142857095</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75">
       <c r="A7" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>0.42857142857142799</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75">
       <c r="A8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75">
       <c r="A9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75">
       <c r="A10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75">
       <c r="A11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75">
       <c r="A12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75">
       <c r="A13" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75">
       <c r="A14" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -2931,7 +2841,7 @@
     </row>
     <row r="15" spans="1:2" ht="12.75">
       <c r="A15" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -2939,7 +2849,7 @@
     </row>
     <row r="16" spans="1:2" ht="12.75">
       <c r="A16" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -3025,24 +2935,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD581085-B148-43BC-A41B-91DE3FEDA5CA}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2202B34E-A3F8-4254-903B-720D9E1A5438}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -3050,95 +2960,95 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3">
-        <v>2.7522935779816501E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>9.1743119266054999E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>0.201834862385321</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B6">
-        <v>0.394495412844036</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>0.192660550458715</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B8">
-        <v>4.5871559633027498E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>5.5045871559633003E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>3.6697247706422E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B11">
-        <v>9.1743119266054999E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B13">
-        <v>2.7522935779816501E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3146,7 +3056,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3154,7 +3064,147 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD581085-B148-43BC-A41B-91DE3FEDA5CA}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>90</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3167,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61A9896-D323-45CD-B1DF-6C5EC36549EC}">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q273"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -3185,7 +3235,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -3193,111 +3243,111 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3">
-        <v>6.0240963855421603E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>7.8313253012048195E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>0.114457831325301</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B6">
-        <v>0.343373493975903</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7">
-        <v>0.28313253012048101</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B8">
-        <v>3.6144578313252997E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>1.8072289156626498E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>6.0240963855420996E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B11">
-        <v>1.8072289156626498E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>1.8072289156626498E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B13">
-        <v>1.8072289156626498E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B15">
-        <v>6.0240963855420996E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3317,1195 +3367,2644 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>62</v>
+      <c r="B23">
+        <v>0.439</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6">
+      <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>62</v>
+      <c r="B24">
+        <v>0.439</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>63</v>
+      <c r="B25">
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6">
+      <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>63</v>
+      <c r="B26">
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="6">
+      <c r="A27">
         <v>7</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>63</v>
+      <c r="B27">
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6">
+      <c r="A28">
         <v>8</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>63</v>
+      <c r="B28">
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="6">
+      <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>63</v>
+      <c r="B29">
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6">
+      <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>64</v>
+      <c r="B30">
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6">
+      <c r="A31">
         <v>11</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>64</v>
+      <c r="B31">
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6">
+      <c r="A32">
         <v>12</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="6">
+      <c r="B32">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
         <v>13</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A35" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="B33">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
         <v>14</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="B34">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
         <v>16</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="B36">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
         <v>18</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="B38">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
         <v>20</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="B40">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
         <v>22</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="B42">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A44">
         <v>24</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="B44">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A46">
         <v>26</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="B46">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A47">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A48">
         <v>28</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="B48">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A49">
+        <v>29</v>
+      </c>
+      <c r="B49">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A50">
         <v>30</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="B50">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A51">
+        <v>31</v>
+      </c>
+      <c r="B51">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A52">
         <v>32</v>
       </c>
-      <c r="Q36" s="11" t="s">
+      <c r="B52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>33</v>
+      </c>
+      <c r="B53">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A54">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="12">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="C37" s="12">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D37" s="12">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E37" s="12">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F37" s="12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G37" s="12">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0.111</v>
-      </c>
-      <c r="I37" s="12">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="J37" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="K37" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="L37" s="12">
-        <v>2.7E-2</v>
-      </c>
-      <c r="M37" s="12">
-        <v>1.9E-2</v>
-      </c>
-      <c r="N37" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O37" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="P37" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="12">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="C38" s="12">
-        <v>2.8650000000000002</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="E38" s="12">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="G38" s="12">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H38" s="12">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="I38" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J38" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K38" s="12">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="L38" s="12">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="M38" s="12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="N38" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O38" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="P38" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C39" s="12">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="D39" s="12">
-        <v>4.2030000000000003</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="F39" s="12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G39" s="12">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H39" s="12">
-        <v>4.7E-2</v>
-      </c>
-      <c r="I39" s="12">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="J39" s="12">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="K39" s="12">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="L39" s="12">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="M39" s="12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N39" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O39" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="P39" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="12">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C40" s="12">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D40" s="12">
-        <v>1.4730000000000001</v>
-      </c>
-      <c r="E40" s="12">
-        <v>5.7130000000000001</v>
-      </c>
-      <c r="F40" s="12">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="G40" s="12">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H40" s="12">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="I40" s="12">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="J40" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="K40" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="L40" s="12">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="M40" s="12">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="N40" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O40" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="P40" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="12">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C41" s="12">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D41" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0.626</v>
-      </c>
-      <c r="F41" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="G41" s="12">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H41" s="12">
+      <c r="B54">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A55">
+        <v>35</v>
+      </c>
+      <c r="B55">
         <v>2.4E-2</v>
       </c>
-      <c r="I41" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="J41" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="K41" s="12">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="L41" s="12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="M41" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="N41" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="O41" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="P41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="C42" s="12">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D42" s="12">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E42" s="12">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="F42" s="12">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0.122</v>
-      </c>
-      <c r="H42" s="12">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I42" s="12">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="J42" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="K42" s="12">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="L42" s="12">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="M42" s="12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="N42" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="O42" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="P42" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="12">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C43" s="12">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="D43" s="12">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="E43" s="12">
-        <v>0.127</v>
-      </c>
-      <c r="F43" s="12">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G43" s="12">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H43" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="I43" s="12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J43" s="12">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="K43" s="12">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="L43" s="12">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="M43" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N43" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O43" s="12">
-        <v>0</v>
-      </c>
-      <c r="P43" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="12">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C44" s="12">
-        <v>0.155</v>
-      </c>
-      <c r="D44" s="12">
-        <v>0.122</v>
-      </c>
-      <c r="E44" s="12">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F44" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G44" s="12">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H44" s="12">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="I44" s="12">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="J44" s="12">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="K44" s="12">
-        <v>2.7E-2</v>
-      </c>
-      <c r="L44" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M44" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="N44" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="O44" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="P44" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="12">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C45" s="12">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="D45" s="12">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E45" s="12">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="F45" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G45" s="12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H45" s="12">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I45" s="12">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J45" s="12">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="K45" s="12">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="L45" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="M45" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N45" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O45" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="P45" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="12">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="C46" s="12">
-        <v>0.219</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0.152</v>
-      </c>
-      <c r="E46" s="12">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="F46" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="H46" s="12">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="I46" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="J46" s="12">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="K46" s="12">
-        <v>3.1E-2</v>
-      </c>
-      <c r="L46" s="12">
-        <v>3.9E-2</v>
-      </c>
-      <c r="M46" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="N46" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O46" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="P46" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="C47" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0.502</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="F47" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G47" s="12">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H47" s="12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="I47" s="12">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J47" s="12">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="K47" s="12">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="L47" s="12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="M47" s="12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="N47" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="O47" s="12">
-        <v>0</v>
-      </c>
-      <c r="P47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="12">
-        <v>0.155</v>
-      </c>
-      <c r="C48" s="12">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0.41</v>
-      </c>
-      <c r="F48" s="12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="H48" s="12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I48" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="J48" s="12">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="K48" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="L48" s="12">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="M48" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="N48" s="12">
-        <v>1.2E-2</v>
-      </c>
-      <c r="O48" s="12">
-        <v>0</v>
-      </c>
-      <c r="P48" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="Q48" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A49" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="12">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="C49" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E49" s="12">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="F49" s="12">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G49" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="H49" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I49" s="12">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="J49" s="12">
-        <v>1.2E-2</v>
-      </c>
-      <c r="K49" s="12">
-        <v>1.9E-2</v>
-      </c>
-      <c r="L49" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M49" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="N49" s="12">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="O49" s="12">
-        <v>1.2E-2</v>
-      </c>
-      <c r="P49" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="C50" s="12">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D50" s="12">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E50" s="12">
-        <v>0</v>
-      </c>
-      <c r="F50" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="G50" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="H50" s="12">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I50" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J50" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K50" s="12">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L50" s="12">
-        <v>2E-3</v>
-      </c>
-      <c r="M50" s="12">
-        <v>1.6E-2</v>
-      </c>
-      <c r="N50" s="12">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="O50" s="12">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="P50" s="12">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Q50" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A51" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="12">
-        <v>0</v>
-      </c>
-      <c r="C51" s="12">
-        <v>0</v>
-      </c>
-      <c r="D51" s="12">
-        <v>0</v>
-      </c>
-      <c r="E51" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F51" s="12">
-        <v>0</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="12">
-        <v>0</v>
-      </c>
-      <c r="I51" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J51" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K51" s="12">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="L51" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="M51" s="12">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="N51" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O51" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="P51" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q51" s="12">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="12">
-        <v>0</v>
-      </c>
-      <c r="C52" s="12">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D52" s="12">
-        <v>0</v>
-      </c>
-      <c r="E52" s="12">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F52" s="12">
-        <v>0</v>
-      </c>
-      <c r="G52" s="12">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0</v>
-      </c>
-      <c r="I52" s="12">
-        <v>0</v>
-      </c>
-      <c r="J52" s="12">
-        <v>0</v>
-      </c>
-      <c r="K52" s="12">
-        <v>0</v>
-      </c>
-      <c r="L52" s="12">
-        <v>0</v>
-      </c>
-      <c r="M52" s="12">
-        <v>0</v>
-      </c>
-      <c r="N52" s="12">
-        <v>0</v>
-      </c>
-      <c r="O52" s="12">
-        <v>0</v>
-      </c>
-      <c r="P52" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="6">
-        <v>16</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="6">
-        <v>17</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="6">
-        <v>18</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="6">
-        <v>19</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="6">
-        <v>20</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="6">
-        <v>21</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="6">
-        <v>22</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>36</v>
+      </c>
+      <c r="B56">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>38</v>
+      </c>
+      <c r="B58">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>39</v>
+      </c>
+      <c r="B59">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>40</v>
+      </c>
+      <c r="B60">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>41</v>
+      </c>
+      <c r="B61">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>42</v>
+      </c>
+      <c r="B62">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>44</v>
+      </c>
+      <c r="B64">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>45</v>
+      </c>
+      <c r="B65">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="B66">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>47</v>
+      </c>
+      <c r="B67">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>48</v>
+      </c>
+      <c r="B68">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="B69">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>51</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>53</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>54</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B77" s="17"/>
-    </row>
-    <row r="78" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>56</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>57</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>59</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>60</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>62</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B83" s="17"/>
+      <c r="A83">
+        <v>63</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>65</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B86" s="17"/>
+      <c r="A86">
+        <v>66</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>68</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" s="17"/>
+      <c r="A89">
+        <v>69</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>71</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="18" t="s">
-        <v>108</v>
+      <c r="A92">
+        <v>72</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
+        <v>73</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>74</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
         <v>75</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>76</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>77</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>78</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>79</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>80</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>81</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>82</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>83</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>84</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>85</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>86</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>87</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>88</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>89</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>90</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>91</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>92</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113">
+        <v>93</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114">
+        <v>94</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115">
+        <v>95</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116">
+        <v>96</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117">
+        <v>97</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118">
+        <v>98</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119">
+        <v>99</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120">
+        <v>100</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A122" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O123" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P123" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q123" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A124" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="12">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="C124" s="12">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D124" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E124" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F124" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G124" s="12">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H124" s="12">
+        <v>0.111</v>
+      </c>
+      <c r="I124" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J124" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K124" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="L124" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="M124" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N124" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O124" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="P124" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A125" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="12">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C125" s="12">
+        <v>2.8650000000000002</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E125" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F125" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G125" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H125" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I125" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J125" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K125" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="L125" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M125" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N125" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O125" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="P125" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A126" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C126" s="12">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="D126" s="12">
+        <v>4.2030000000000003</v>
+      </c>
+      <c r="E126" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F126" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G126" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H126" s="12">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I126" s="12">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J126" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K126" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L126" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M126" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N126" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O126" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="P126" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A127" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C127" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D127" s="12">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="E127" s="12">
+        <v>5.7130000000000001</v>
+      </c>
+      <c r="F127" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G127" s="12">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H127" s="12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I127" s="12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J127" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K127" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L127" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M127" s="12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N127" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O127" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="P127" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C128" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D128" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0.626</v>
+      </c>
+      <c r="F128" s="12">
+        <v>0.31</v>
+      </c>
+      <c r="G128" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H128" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I128" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="J128" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="K128" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L128" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M128" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="N128" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="O128" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="P128" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A129" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="C129" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D129" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E129" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F129" s="12">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G129" s="12">
+        <v>0.122</v>
+      </c>
+      <c r="H129" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I129" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J129" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K129" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L129" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M129" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N129" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O129" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="P129" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A130" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C130" s="12">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E130" s="12">
+        <v>0.127</v>
+      </c>
+      <c r="F130" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G130" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H130" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="I130" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J130" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K130" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L130" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M130" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N130" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O130" s="12">
+        <v>0</v>
+      </c>
+      <c r="P130" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C131" s="12">
+        <v>0.155</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0.122</v>
+      </c>
+      <c r="E131" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F131" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G131" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H131" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I131" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J131" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K131" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L131" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M131" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="N131" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="O131" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="P131" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A132" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C132" s="12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D132" s="12">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E132" s="12">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="F132" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G132" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H132" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I132" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J132" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K132" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L132" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="M132" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N132" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O132" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="P132" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A133" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" s="12">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="C133" s="12">
+        <v>0.219</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0.152</v>
+      </c>
+      <c r="E133" s="12">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F133" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G133" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="H133" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I133" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="J133" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K133" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L133" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M133" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N133" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O133" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="P133" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A134" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="C134" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0.502</v>
+      </c>
+      <c r="E134" s="12">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F134" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G134" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H134" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I134" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J134" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K134" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L134" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M134" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N134" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O134" s="12">
+        <v>0</v>
+      </c>
+      <c r="P134" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A135" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="12">
+        <v>0.155</v>
+      </c>
+      <c r="C135" s="12">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E135" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="F135" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G135" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="H135" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I135" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="J135" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K135" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="L135" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M135" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="N135" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O135" s="12">
+        <v>0</v>
+      </c>
+      <c r="P135" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="Q135" s="12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A136" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C136" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="E136" s="12">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F136" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G136" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="H136" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I136" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J136" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K136" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L136" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M136" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N136" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O136" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P136" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A137" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="C137" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D137" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E137" s="12">
+        <v>0</v>
+      </c>
+      <c r="F137" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="G137" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="H137" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I137" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J137" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K137" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L137" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="M137" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N137" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O137" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P137" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q137" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A138" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="12">
+        <v>0</v>
+      </c>
+      <c r="C138" s="12">
+        <v>0</v>
+      </c>
+      <c r="D138" s="12">
+        <v>0</v>
+      </c>
+      <c r="E138" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F138" s="12">
+        <v>0</v>
+      </c>
+      <c r="G138" s="12">
+        <v>0</v>
+      </c>
+      <c r="H138" s="12">
+        <v>0</v>
+      </c>
+      <c r="I138" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J138" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K138" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L138" s="12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M138" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N138" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O138" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P138" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q138" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A139" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" s="12">
+        <v>0</v>
+      </c>
+      <c r="C139" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0</v>
+      </c>
+      <c r="E139" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F139" s="12">
+        <v>0</v>
+      </c>
+      <c r="G139" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H139" s="12">
+        <v>0</v>
+      </c>
+      <c r="I139" s="12">
+        <v>0</v>
+      </c>
+      <c r="J139" s="12">
+        <v>0</v>
+      </c>
+      <c r="K139" s="12">
+        <v>0</v>
+      </c>
+      <c r="L139" s="12">
+        <v>0</v>
+      </c>
+      <c r="M139" s="12">
+        <v>0</v>
+      </c>
+      <c r="N139" s="12">
+        <v>0</v>
+      </c>
+      <c r="O139" s="12">
+        <v>0</v>
+      </c>
+      <c r="P139" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B153" s="17"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B156" s="17"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B159" s="17"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B162" s="17"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B165" s="17"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="C167" s="17"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>3</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>5</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>6</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>8</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>10</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>11</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>12</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>13</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>14</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>15</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>16</v>
+      </c>
+      <c r="B189">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>17</v>
+      </c>
+      <c r="B190">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>18</v>
+      </c>
+      <c r="B191">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>19</v>
+      </c>
+      <c r="B192">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>20</v>
+      </c>
+      <c r="B193">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>21</v>
+      </c>
+      <c r="B194">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>22</v>
+      </c>
+      <c r="B195">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>23</v>
+      </c>
+      <c r="B196">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>24</v>
+      </c>
+      <c r="B197">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>25</v>
+      </c>
+      <c r="B198">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>26</v>
+      </c>
+      <c r="B199">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>27</v>
+      </c>
+      <c r="B200">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>28</v>
+      </c>
+      <c r="B201">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>29</v>
+      </c>
+      <c r="B202">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>30</v>
+      </c>
+      <c r="B203">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>31</v>
+      </c>
+      <c r="B204">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>32</v>
+      </c>
+      <c r="B205">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>33</v>
+      </c>
+      <c r="B206">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>34</v>
+      </c>
+      <c r="B207">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>35</v>
+      </c>
+      <c r="B208">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>36</v>
+      </c>
+      <c r="B209">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>37</v>
+      </c>
+      <c r="B210">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>38</v>
+      </c>
+      <c r="B211">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>39</v>
+      </c>
+      <c r="B212">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>40</v>
+      </c>
+      <c r="B213">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>41</v>
+      </c>
+      <c r="B214">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>42</v>
+      </c>
+      <c r="B215">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>43</v>
+      </c>
+      <c r="B216">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>44</v>
+      </c>
+      <c r="B217">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>45</v>
+      </c>
+      <c r="B218">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>46</v>
+      </c>
+      <c r="B219">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>47</v>
+      </c>
+      <c r="B220">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>48</v>
+      </c>
+      <c r="B221">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>49</v>
+      </c>
+      <c r="B222">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>50</v>
+      </c>
+      <c r="B223">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>51</v>
+      </c>
+      <c r="B224">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>52</v>
+      </c>
+      <c r="B225">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>53</v>
+      </c>
+      <c r="B226">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>54</v>
+      </c>
+      <c r="B227">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>55</v>
+      </c>
+      <c r="B228">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>56</v>
+      </c>
+      <c r="B229">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>57</v>
+      </c>
+      <c r="B230">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>58</v>
+      </c>
+      <c r="B231">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>59</v>
+      </c>
+      <c r="B232">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>60</v>
+      </c>
+      <c r="B233">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>61</v>
+      </c>
+      <c r="B234">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>62</v>
+      </c>
+      <c r="B235">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>63</v>
+      </c>
+      <c r="B236">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>64</v>
+      </c>
+      <c r="B237">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>65</v>
+      </c>
+      <c r="B238">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>66</v>
+      </c>
+      <c r="B239">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>67</v>
+      </c>
+      <c r="B240">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>68</v>
+      </c>
+      <c r="B241">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>69</v>
+      </c>
+      <c r="B242">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>70</v>
+      </c>
+      <c r="B243">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>71</v>
+      </c>
+      <c r="B244">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>72</v>
+      </c>
+      <c r="B245">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>73</v>
+      </c>
+      <c r="B246">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>74</v>
+      </c>
+      <c r="B247">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>75</v>
+      </c>
+      <c r="B248">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>76</v>
+      </c>
+      <c r="B249">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>77</v>
+      </c>
+      <c r="B250">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>78</v>
+      </c>
+      <c r="B251">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>79</v>
+      </c>
+      <c r="B252">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>80</v>
+      </c>
+      <c r="B253">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>81</v>
+      </c>
+      <c r="B254">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>82</v>
+      </c>
+      <c r="B255">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>83</v>
+      </c>
+      <c r="B256">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>84</v>
+      </c>
+      <c r="B257">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>85</v>
+      </c>
+      <c r="B258">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>86</v>
+      </c>
+      <c r="B259">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>87</v>
+      </c>
+      <c r="B260">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>88</v>
+      </c>
+      <c r="B261">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>89</v>
+      </c>
+      <c r="B262">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>90</v>
+      </c>
+      <c r="B263">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>91</v>
+      </c>
+      <c r="B264">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>92</v>
+      </c>
+      <c r="B265">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>93</v>
+      </c>
+      <c r="B266">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>94</v>
+      </c>
+      <c r="B267">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>95</v>
+      </c>
+      <c r="B268">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>96</v>
+      </c>
+      <c r="B269">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>97</v>
+      </c>
+      <c r="B270">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>98</v>
+      </c>
+      <c r="B271">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>99</v>
+      </c>
+      <c r="B272">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>100</v>
+      </c>
+      <c r="B273">
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4521,7 +6020,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -4529,20 +6028,20 @@
   <sheetData>
     <row r="1" spans="1:17" ht="12.75">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="12.75">
       <c r="A2" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="12.75">
       <c r="A3" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6">
         <v>2947</v>
@@ -4558,7 +6057,7 @@
     </row>
     <row r="5" spans="1:17" ht="12.75">
       <c r="A5" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6">
         <v>639</v>
@@ -4566,7 +6065,7 @@
     </row>
     <row r="6" spans="1:17" ht="12.75">
       <c r="A6" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6">
         <v>430</v>
@@ -4574,7 +6073,7 @@
     </row>
     <row r="7" spans="1:17" ht="12.75">
       <c r="A7" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6">
         <v>140</v>
@@ -4582,7 +6081,7 @@
     </row>
     <row r="8" spans="1:17" ht="12.75">
       <c r="A8" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6">
         <v>83</v>
@@ -4590,7 +6089,7 @@
     </row>
     <row r="9" spans="1:17" ht="12.75">
       <c r="A9" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6">
         <v>26</v>
@@ -4598,7 +6097,7 @@
     </row>
     <row r="10" spans="1:17" ht="12.75">
       <c r="A10" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6">
         <v>13</v>
@@ -4606,7 +6105,7 @@
     </row>
     <row r="11" spans="1:17" ht="12.75">
       <c r="A11" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" s="6">
         <v>12</v>
@@ -4614,7 +6113,7 @@
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="13.5" thickBot="1">
@@ -5533,7 +7032,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" thickBot="1">
       <c r="A1" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="13.5" thickBot="1">
